--- a/December/All Details/31.12.19/MC Balance Transfer Dec'19.xlsx
+++ b/December/All Details/31.12.19/MC Balance Transfer Dec'19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\December\All Details\31.12.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98CAC7-921C-4813-8467-15C389B1CFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BAC7D9-044B-4F30-96D3-C097BF84EF93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1703,9 +1703,9 @@
   <dimension ref="A1:BI232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4136,14 +4136,14 @@
         <v>229280</v>
       </c>
       <c r="C32" s="2">
-        <v>294346</v>
+        <v>293942</v>
       </c>
       <c r="D32" s="2">
         <v>2080</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>296426</v>
+        <v>296022</v>
       </c>
       <c r="F32" s="94"/>
       <c r="G32" s="114"/>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="C34" s="2">
         <f>SUM(C6:C33)</f>
-        <v>8949568</v>
+        <v>8949164</v>
       </c>
       <c r="D34" s="2">
         <f>SUM(D6:D33)</f>
@@ -4298,11 +4298,11 @@
       </c>
       <c r="E34" s="2">
         <f>SUM(E6:E33)</f>
-        <v>8985939</v>
+        <v>8985535</v>
       </c>
       <c r="F34" s="94">
         <f>B34-E34</f>
-        <v>28831</v>
+        <v>29235</v>
       </c>
       <c r="G34" s="114"/>
       <c r="H34" s="124" t="s">
@@ -5119,7 +5119,7 @@
       <c r="A45" s="73"/>
       <c r="B45" s="74"/>
       <c r="C45" s="75">
-        <v>50</v>
+        <v>454</v>
       </c>
       <c r="D45" s="76"/>
       <c r="E45" s="3"/>
@@ -8865,7 +8865,7 @@
       <c r="B99" s="159"/>
       <c r="C99" s="45">
         <f>SUM(C38:C98)</f>
-        <v>1477806</v>
+        <v>1478210</v>
       </c>
       <c r="D99" s="41"/>
       <c r="F99" s="23"/>
@@ -9000,7 +9000,7 @@
       <c r="B101" s="157"/>
       <c r="C101" s="42">
         <f>C99+L122</f>
-        <v>1477806</v>
+        <v>1478210</v>
       </c>
       <c r="D101" s="26"/>
       <c r="F101" s="24"/>
